--- a/TEA/TEA_plastic_pyro_v2.xlsx
+++ b/TEA/TEA_plastic_pyro_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSID_PC22\Documents\GitHub\TeamEnv\TEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ECB926-E756-4934-8969-FAC24FC4661F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D517BC1-C94E-4419-AB86-C4786AD626DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="4785" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6960" yWindow="4365" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plastic" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="112">
   <si>
     <t>Capex</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>*** 파란색 글씨만 변동되는 값</t>
+  </si>
+  <si>
+    <t>Cooling, heating 조건문 추가</t>
   </si>
   <si>
     <t>Annual operating hours [sec/yr]</t>
@@ -695,7 +698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,9 +843,6 @@
     </xf>
     <xf numFmtId="41" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1191,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1250,7 +1250,7 @@
       <c r="C5" s="2">
         <v>2100</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="56" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="9">
@@ -1280,7 +1280,7 @@
       <c r="C6" s="4">
         <v>2100</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="57" t="s">
         <v>11</v>
       </c>
       <c r="E6">
@@ -1310,7 +1310,7 @@
       <c r="C7" s="4">
         <v>2100</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="57" t="s">
         <v>11</v>
       </c>
       <c r="E7">
@@ -1340,7 +1340,7 @@
       <c r="C8" s="4">
         <v>2100</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="57" t="s">
         <v>11</v>
       </c>
       <c r="E8">
@@ -1370,7 +1370,7 @@
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="57" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
@@ -1386,20 +1386,20 @@
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="71" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="4">
         <v>1500</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" s="44">
-        <v>388</v>
+        <v>2.14424408</v>
       </c>
       <c r="G10">
         <v>0.59</v>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="I10" s="5">
         <f>C10*(F10/E10)^G10*595.6/499.6</f>
-        <v>40015.342557674681</v>
+        <v>1863.2349013339119</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>20</v>
@@ -1422,7 +1422,7 @@
       <c r="C11" s="4">
         <v>14100</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="57" t="s">
         <v>11</v>
       </c>
       <c r="E11">
@@ -1452,7 +1452,7 @@
       <c r="C12" s="4">
         <v>2100</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="57" t="s">
         <v>11</v>
       </c>
       <c r="E12">
@@ -1476,20 +1476,20 @@
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="71" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="4">
         <v>1500</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13" s="44">
-        <v>388.00453299999998</v>
+        <v>3.25671395</v>
       </c>
       <c r="G13">
         <v>0.59</v>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="I13" s="5">
         <f>C13*(F13/E13)^G13*595.6/499.6</f>
-        <v>40015.618381326472</v>
+        <v>2384.2719719835331</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>20</v>
@@ -1512,7 +1512,7 @@
       <c r="C14" s="46">
         <v>165000</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="58" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="47">
@@ -1545,7 +1545,7 @@
       <c r="H15" s="41"/>
       <c r="I15" s="49">
         <f>SUM(I5:I14)</f>
-        <v>844971.16898026329</v>
+        <v>769187.71491457964</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -1569,11 +1569,11 @@
       <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="74">
+      <c r="C23" s="73">
         <v>20609.517</v>
       </c>
       <c r="D23" s="11">
-        <f>C23*$C$41*$C$38</f>
+        <f>C23*IF(C23&gt;0,$C$41,$C$40)*$C$38</f>
         <v>5013.6772005899993</v>
       </c>
     </row>
@@ -1581,11 +1581,11 @@
       <c r="B24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="75">
+      <c r="C24" s="74">
         <v>40390.371099999997</v>
       </c>
       <c r="D24" s="11">
-        <f>C24*$C$41*$C$38</f>
+        <f>C24*IF(C24&gt;0,$C$41,$C$40)*$C$38</f>
         <v>9825.765577496999</v>
       </c>
     </row>
@@ -1593,11 +1593,11 @@
       <c r="B25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="75">
+      <c r="C25" s="74">
         <v>16337.205400000001</v>
       </c>
       <c r="D25" s="11">
-        <f>C25*$C$41*$C$38</f>
+        <f>C25*IF(C25&gt;0,$C$41,$C$40)*$C$38</f>
         <v>3974.3519576580006</v>
       </c>
     </row>
@@ -1605,11 +1605,11 @@
       <c r="B26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="75">
+      <c r="C26" s="74">
         <v>6161.0077300000003</v>
       </c>
       <c r="D26" s="11">
-        <f>C26*$C$41*$C$38</f>
+        <f>C26*IF(C26&gt;0,$C$41,$C$40)*$C$38</f>
         <v>1498.7883504771</v>
       </c>
     </row>
@@ -1626,12 +1626,12 @@
       <c r="B28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="76">
+      <c r="C28" s="75">
         <v>84476.541500000007</v>
       </c>
-      <c r="D28" s="51">
-        <f>C28*C40*$C$38</f>
-        <v>-2298.0491490411</v>
+      <c r="D28" s="11">
+        <f>C28*IF(C28&gt;0,$C$41,$C$40)*$C$38</f>
+        <v>20550.608250705001</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
@@ -1641,35 +1641,38 @@
       <c r="B29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="76">
+      <c r="C29" s="75">
         <v>-24698.977999999999</v>
       </c>
-      <c r="D29" s="51">
-        <f>C29*C40*$C$38</f>
+      <c r="D29" s="11">
+        <f>C29*IF(C29&gt;0,$C$41,$C$40)*$C$38</f>
         <v>671.89617812519998</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="75">
+      <c r="C30" s="74">
         <v>-60456.4467</v>
       </c>
       <c r="D30" s="11">
-        <f>C30*C41*C38</f>
-        <v>-14707.239788709001</v>
+        <f>C30*IF(C30&gt;0,$C$41,$C$40)*$C$38</f>
+        <v>1644.6209021587799</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="76">
+      <c r="C31" s="75">
         <v>-38182.315999999999</v>
       </c>
-      <c r="D31" s="51">
-        <f>C31*C40*C38</f>
+      <c r="D31" s="11">
+        <f>C31*IF(C31&gt;0,$C$41,$C$40)*$C$38</f>
         <v>1038.6888150743998</v>
       </c>
     </row>
@@ -1689,62 +1692,62 @@
         <v>26</v>
       </c>
       <c r="C33" s="42"/>
-      <c r="D33" s="69">
+      <c r="D33" s="68">
         <f>SUM(D23:D32)</f>
-        <v>5017.8791416715994</v>
+        <v>44218.397232285482</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.25" customHeight="1" thickBot="1"/>
     <row r="38" spans="1:7">
       <c r="B38" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C38" s="3">
         <f>8500*3600</f>
         <v>30600000</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="77">
+        <v>33</v>
+      </c>
+      <c r="G38" s="76">
         <f>'Plastic EAC&amp;TPC'!E34</f>
-        <v>391691.50113619486</v>
+        <v>356561.62218411564</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="B39" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="52">
+      <c r="B39" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="51">
         <v>0.06</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G39">
         <f>'Plastic EAC&amp;TPC'!K25</f>
-        <v>71128.344296680472</v>
+        <v>144972.70422708918</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="53">
+      <c r="B40" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="52">
         <v>-8.8900000000000003E-10</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A41" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="54">
+      <c r="B41" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="53">
         <v>7.9500000000000001E-9</v>
       </c>
     </row>
@@ -1775,183 +1778,183 @@
   <sheetData>
     <row r="3" spans="2:11" ht="17.25" customHeight="1" thickBot="1">
       <c r="B3" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="I3" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
     </row>
     <row r="4" spans="2:11" ht="17.25" customHeight="1" thickBot="1">
       <c r="B4" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="32" t="s">
         <v>44</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
       <c r="I5" s="33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" s="34"/>
-      <c r="K5" s="60"/>
+      <c r="K5" s="59"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="22"/>
       <c r="E6" s="24"/>
       <c r="I6" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="61">
+        <v>51</v>
+      </c>
+      <c r="K6" s="60">
         <f>SUM(E29*0.01)</f>
-        <v>28165.705632675443</v>
+        <v>25639.590497152658</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" s="25">
         <v>30</v>
       </c>
       <c r="E7" s="50">
         <f>Plastic!I15</f>
-        <v>844971.16898026329</v>
+        <v>769187.71491457964</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J7" s="36"/>
-      <c r="K7" s="61"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" s="22">
         <v>10</v>
       </c>
       <c r="E8" s="24">
         <f>SUM(E29*0.1)</f>
-        <v>281657.05632675445</v>
+        <v>256395.90497152659</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="62" t="s">
+      <c r="K8" s="61" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9" s="22">
         <v>5</v>
       </c>
       <c r="E9" s="24">
         <f>SUM(E29*0.05)</f>
-        <v>140828.52816337722</v>
+        <v>128197.95248576329</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="70">
+      <c r="K9" s="69">
         <f>Plastic!D33</f>
-        <v>5017.8791416715994</v>
+        <v>44218.397232285482</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" s="22">
         <v>10</v>
       </c>
       <c r="E10" s="24">
         <f>SUM(E29*0.1)</f>
-        <v>281657.05632675445</v>
+        <v>256395.90497152659</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J10" s="36"/>
-      <c r="K10" s="63" t="s">
+      <c r="K10" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" s="22">
         <v>5</v>
       </c>
       <c r="E11" s="24">
         <f>SUM(E29*0.05)</f>
-        <v>140828.52816337722</v>
+        <v>128197.95248576329</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="67" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1961,126 +1964,126 @@
       <c r="D12" s="22"/>
       <c r="E12" s="24"/>
       <c r="I12" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="64">
+        <v>51</v>
+      </c>
+      <c r="K12" s="63">
         <f>SUM(K6*0.04)</f>
-        <v>1126.6282253070178</v>
+        <v>1025.5836198861064</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
       <c r="E13" s="24"/>
       <c r="I13" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="61">
+        <v>71</v>
+      </c>
+      <c r="K13" s="60">
         <f>SUM(K25*0.15)</f>
-        <v>10669.25164450207</v>
+        <v>21745.905634063376</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" s="22">
         <v>8</v>
       </c>
       <c r="E14" s="24">
         <f>SUM(E29*0.08)</f>
-        <v>225325.64506140354</v>
+        <v>205116.72397722126</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" s="61">
+        <v>75</v>
+      </c>
+      <c r="K14" s="60">
         <f>SUM(K13*0.3)</f>
-        <v>3200.7754933506208</v>
+        <v>6523.7716902190123</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15" s="22">
         <v>2</v>
       </c>
       <c r="E15" s="24">
         <f>SUM(E29*0.02)</f>
-        <v>56331.411265350886</v>
+        <v>51279.180994305316</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15" s="61">
+        <v>79</v>
+      </c>
+      <c r="K15" s="60">
         <f>SUM(K12*0.15)</f>
-        <v>168.99423379605267</v>
+        <v>153.83754298291595</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D16" s="22">
         <v>8</v>
       </c>
       <c r="E16" s="24">
         <f>SUM(E29*0.08)</f>
-        <v>225325.64506140354</v>
+        <v>205116.72397722126</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" s="61">
+        <v>83</v>
+      </c>
+      <c r="K16" s="60">
         <f>SUM(K13*0.15)</f>
-        <v>1600.3877466753104</v>
+        <v>3261.8858451095061</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D17" s="22">
         <v>2</v>
       </c>
       <c r="E17" s="24">
         <f>SUM(E29*0.02)</f>
-        <v>56331.411265350886</v>
+        <v>51279.180994305316</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="36"/>
-      <c r="K17" s="61"/>
+      <c r="K17" s="60"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="24"/>
@@ -2088,29 +2091,29 @@
       <c r="D18" s="22"/>
       <c r="E18" s="24"/>
       <c r="I18" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="K18" s="61">
+        <v>87</v>
+      </c>
+      <c r="K18" s="60">
         <f>SUM(0.6*K29)</f>
-        <v>8997.9932178958243</v>
+        <v>17577.156566501097</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
       <c r="E19" s="24">
         <f>SUM(E7:E17)</f>
-        <v>2253256.4506140356</v>
+        <v>2051167.2397722125</v>
       </c>
       <c r="I19" s="21"/>
       <c r="J19" s="36"/>
-      <c r="K19" s="61"/>
+      <c r="K19" s="60"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="24"/>
@@ -2118,118 +2121,118 @@
       <c r="D20" s="22"/>
       <c r="E20" s="24"/>
       <c r="I20" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J20" s="36"/>
-      <c r="K20" s="61"/>
+      <c r="K20" s="60"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
       <c r="E21" s="24"/>
       <c r="I21" s="21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="61">
+        <v>92</v>
+      </c>
+      <c r="K21" s="60">
         <f>SUM(K13*0.175)</f>
-        <v>1867.1190377878622</v>
+        <v>3805.5334859610907</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D22" s="22">
         <v>5</v>
       </c>
       <c r="E22" s="24">
         <f>SUM(E29*0.05)</f>
-        <v>140828.52816337722</v>
+        <v>128197.95248576329</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="K22" s="61">
+        <v>96</v>
+      </c>
+      <c r="K22" s="60">
         <f>SUM(K25*0.11)</f>
-        <v>7824.1178726348517</v>
+        <v>15946.99746497981</v>
       </c>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D23" s="22">
         <v>5</v>
       </c>
       <c r="E23" s="24">
         <f>SUM(E29*0.05)</f>
-        <v>140828.52816337722</v>
+        <v>128197.95248576329</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J23" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="K23" s="61">
+        <v>100</v>
+      </c>
+      <c r="K23" s="60">
         <f>SUM(K25*0.035)</f>
-        <v>2489.4920503838166</v>
+        <v>5074.0446479481216</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="22">
         <v>5</v>
       </c>
       <c r="E24" s="24">
         <f>SUM(E29*0.05)</f>
-        <v>140828.52816337722</v>
+        <v>128197.95248576329</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
-      <c r="K24" s="61"/>
+      <c r="K24" s="60"/>
     </row>
     <row r="25" spans="2:11" ht="17.25" customHeight="1" thickBot="1">
       <c r="B25" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D25" s="22">
         <v>5</v>
       </c>
       <c r="E25" s="24">
         <f>SUM(E29*0.05)</f>
-        <v>140828.52816337722</v>
+        <v>128197.95248576329</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J25" s="29"/>
-      <c r="K25" s="65">
+      <c r="K25" s="64">
         <f>SUM(K27/0.49425)</f>
-        <v>71128.344296680472</v>
+        <v>144972.70422708918</v>
       </c>
     </row>
     <row r="26" spans="2:11">
@@ -2239,23 +2242,23 @@
       <c r="E26" s="24"/>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
-      <c r="K26" s="66"/>
+      <c r="K26" s="65"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="22"/>
       <c r="E27" s="24">
         <f>SUM(E22:E25)</f>
-        <v>563314.1126535089</v>
+        <v>512791.80994305317</v>
       </c>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
-      <c r="K27" s="66">
+      <c r="K27" s="65">
         <f>SUM(K6:K12,K15,0.6*K12)</f>
-        <v>35155.184168634325</v>
+        <v>71652.759064238839</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -2265,11 +2268,11 @@
       <c r="E28" s="24"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
-      <c r="K28" s="66"/>
+      <c r="K28" s="65"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C29" s="21">
         <v>100</v>
@@ -2279,20 +2282,20 @@
       </c>
       <c r="E29" s="24">
         <f>SUM(E7*100/D7)</f>
-        <v>2816570.5632675444</v>
+        <v>2563959.0497152656</v>
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="K29" s="66">
+        <v>106</v>
+      </c>
+      <c r="K29" s="65">
         <f>(K12+K13+K14)</f>
-        <v>14996.655363159709</v>
+        <v>29295.260944168494</v>
       </c>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C30" s="21">
         <v>20</v>
@@ -2302,16 +2305,16 @@
       </c>
       <c r="E30" s="24">
         <f>SUM(E29*0.2)</f>
-        <v>563314.1126535089</v>
-      </c>
-      <c r="K30" s="67">
+        <v>512791.80994305317</v>
+      </c>
+      <c r="K30" s="66">
         <f>SUM(K6:K23)</f>
-        <v>71128.344296680472</v>
+        <v>144972.70422708918</v>
       </c>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C31" s="21">
         <v>20</v>
@@ -2321,7 +2324,7 @@
       </c>
       <c r="E31" s="24">
         <f>SUM(E29*0.2)</f>
-        <v>563314.1126535089</v>
+        <v>512791.80994305317</v>
       </c>
     </row>
     <row r="32" spans="2:11">
@@ -2332,28 +2335,28 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="20">
         <f>SUM(E29:E31)</f>
-        <v>3943198.7885745619</v>
+        <v>3589542.6696013715</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="17.25" customHeight="1" thickBot="1">
       <c r="B34" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D34" s="30"/>
-      <c r="E34" s="73">
+      <c r="E34" s="72">
         <f>SUM(E33/((1-(1/((1.05)^25)))/0.07))</f>
-        <v>391691.50113619486</v>
+        <v>356561.62218411564</v>
       </c>
     </row>
   </sheetData>

--- a/TEA/TEA_plastic_pyro_v2.xlsx
+++ b/TEA/TEA_plastic_pyro_v2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSID_PC22\Documents\GitHub\TeamEnv\TEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D517BC1-C94E-4419-AB86-C4786AD626DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58ECFDC-AD2A-4816-A21C-A68610E4F348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="4365" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20172" yWindow="0" windowWidth="20172" windowHeight="17280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plastic" sheetId="1" r:id="rId1"/>
     <sheet name="Plastic EAC&amp;TPC" sheetId="2" r:id="rId2"/>
+    <sheet name="Revenue" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="127">
   <si>
     <t>Capex</t>
   </si>
@@ -370,6 +371,67 @@
   </si>
   <si>
     <t>EAC (r=7%, t=25 year)    RP=r, NP=t</t>
+  </si>
+  <si>
+    <t>CH4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2H6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2H4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4H10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6H6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7H8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C8H10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C9H18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10H8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10H14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C14H30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C16H34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C22H46</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revenue
+[$/Y]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kg/h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -380,7 +442,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,7 +542,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,8 +573,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -689,6 +763,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -698,7 +781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -908,6 +991,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -1191,30 +1286,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="29" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="40" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="40" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="23.75" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="60.875" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="23.69921875" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.69921875" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="60.8984375" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="17.25" customHeight="1" thickBot="1"/>
-    <row r="4" spans="2:10" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
@@ -1243,7 +1338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -1273,7 +1368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
@@ -1303,7 +1398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
@@ -1333,7 +1428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
@@ -1363,7 +1458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="11" t="s">
         <v>16</v>
       </c>
@@ -1385,7 +1480,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="71" t="s">
         <v>18</v>
       </c>
@@ -1415,7 +1510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
@@ -1445,7 +1540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
@@ -1475,7 +1570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="71" t="s">
         <v>24</v>
       </c>
@@ -1505,7 +1600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="17.25" customHeight="1" thickBot="1">
+    <row r="14" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12" t="s">
         <v>25</v>
       </c>
@@ -1533,7 +1628,7 @@
       </c>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="2:10" ht="17.25" customHeight="1" thickBot="1">
+    <row r="15" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="8" t="s">
         <v>26</v>
       </c>
@@ -1548,13 +1643,13 @@
         <v>769187.71491457964</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="17.25" customHeight="1" thickBot="1"/>
-    <row r="22" spans="2:5" ht="17.25" customHeight="1" thickBot="1">
+    <row r="21" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="8" t="s">
         <v>1</v>
       </c>
@@ -1565,7 +1660,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
@@ -1577,7 +1672,7 @@
         <v>5013.6772005899993</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="4" t="s">
         <v>13</v>
       </c>
@@ -1589,7 +1684,7 @@
         <v>9825.765577496999</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="4" t="s">
         <v>14</v>
       </c>
@@ -1601,7 +1696,7 @@
         <v>3974.3519576580006</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B26" s="4" t="s">
         <v>15</v>
       </c>
@@ -1613,7 +1708,7 @@
         <v>1498.7883504771</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" s="4" t="s">
         <v>16</v>
       </c>
@@ -1622,7 +1717,7 @@
       </c>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B28" s="4" t="s">
         <v>18</v>
       </c>
@@ -1637,7 +1732,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" s="4" t="s">
         <v>21</v>
       </c>
@@ -1652,7 +1747,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" s="4" t="s">
         <v>23</v>
       </c>
@@ -1664,7 +1759,7 @@
         <v>1644.6209021587799</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="4" t="s">
         <v>24</v>
       </c>
@@ -1676,7 +1771,7 @@
         <v>1038.6888150743998</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="17.25" customHeight="1" thickBot="1">
+    <row r="32" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="6" t="s">
         <v>25</v>
       </c>
@@ -1687,7 +1782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
+    <row r="33" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B33" s="8" t="s">
         <v>26</v>
       </c>
@@ -1697,8 +1792,8 @@
         <v>44218.397232285482</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17.25" customHeight="1" thickBot="1"/>
-    <row r="38" spans="1:7">
+    <row r="37" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B38" s="10" t="s">
         <v>32</v>
       </c>
@@ -1714,7 +1809,7 @@
         <v>356561.62218411564</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B39" s="54" t="s">
         <v>34</v>
       </c>
@@ -1729,7 +1824,7 @@
         <v>144972.70422708918</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="13" t="s">
         <v>17</v>
       </c>
@@ -1740,7 +1835,7 @@
         <v>-8.8900000000000003E-10</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
+    <row r="41" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="13" t="s">
         <v>37</v>
       </c>
@@ -1766,17 +1861,17 @@
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="55.875" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.75" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.375" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.25" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.8984375" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.8984375" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.59765625" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.69921875" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.3984375" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.19921875" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="14" t="s">
         <v>39</v>
       </c>
@@ -1789,7 +1884,7 @@
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="2:11" ht="17.25" customHeight="1" thickBot="1">
+    <row r="4" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="16" t="s">
         <v>41</v>
       </c>
@@ -1812,7 +1907,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" s="20" t="s">
         <v>47</v>
       </c>
@@ -1825,7 +1920,7 @@
       <c r="J5" s="34"/>
       <c r="K5" s="59"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="20" t="s">
         <v>49</v>
       </c>
@@ -1843,7 +1938,7 @@
         <v>25639.590497152658</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="24" t="s">
         <v>52</v>
       </c>
@@ -1863,7 +1958,7 @@
       <c r="J7" s="36"/>
       <c r="K7" s="60"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="24" t="s">
         <v>55</v>
       </c>
@@ -1887,7 +1982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="24" t="s">
         <v>58</v>
       </c>
@@ -1912,7 +2007,7 @@
         <v>44218.397232285482</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="24" t="s">
         <v>61</v>
       </c>
@@ -1934,7 +2029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" s="24" t="s">
         <v>64</v>
       </c>
@@ -1958,7 +2053,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="24"/>
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
@@ -1974,7 +2069,7 @@
         <v>1025.5836198861064</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" s="20" t="s">
         <v>69</v>
       </c>
@@ -1992,7 +2087,7 @@
         <v>21745.905634063376</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" s="24" t="s">
         <v>72</v>
       </c>
@@ -2017,7 +2112,7 @@
         <v>6523.7716902190123</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="24" t="s">
         <v>76</v>
       </c>
@@ -2042,7 +2137,7 @@
         <v>153.83754298291595</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" s="24" t="s">
         <v>80</v>
       </c>
@@ -2067,7 +2162,7 @@
         <v>3261.8858451095061</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B17" s="24" t="s">
         <v>84</v>
       </c>
@@ -2085,7 +2180,7 @@
       <c r="J17" s="36"/>
       <c r="K17" s="60"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B18" s="24"/>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
@@ -2101,7 +2196,7 @@
         <v>17577.156566501097</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B19" s="20" t="s">
         <v>88</v>
       </c>
@@ -2115,7 +2210,7 @@
       <c r="J19" s="36"/>
       <c r="K19" s="60"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20" s="24"/>
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
@@ -2126,7 +2221,7 @@
       <c r="J20" s="36"/>
       <c r="K20" s="60"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B21" s="20" t="s">
         <v>90</v>
       </c>
@@ -2144,7 +2239,7 @@
         <v>3805.5334859610907</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B22" s="24" t="s">
         <v>93</v>
       </c>
@@ -2169,7 +2264,7 @@
         <v>15946.99746497981</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B23" s="24" t="s">
         <v>97</v>
       </c>
@@ -2194,7 +2289,7 @@
         <v>5074.0446479481216</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B24" s="24" t="s">
         <v>101</v>
       </c>
@@ -2212,7 +2307,7 @@
       <c r="J24" s="39"/>
       <c r="K24" s="60"/>
     </row>
-    <row r="25" spans="2:11" ht="17.25" customHeight="1" thickBot="1">
+    <row r="25" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="24" t="s">
         <v>102</v>
       </c>
@@ -2235,7 +2330,7 @@
         <v>144972.70422708918</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B26" s="24"/>
       <c r="C26" s="21"/>
       <c r="D26" s="22"/>
@@ -2244,7 +2339,7 @@
       <c r="J26" s="22"/>
       <c r="K26" s="65"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B27" s="20" t="s">
         <v>104</v>
       </c>
@@ -2261,7 +2356,7 @@
         <v>71652.759064238839</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B28" s="24"/>
       <c r="C28" s="21"/>
       <c r="D28" s="22"/>
@@ -2270,7 +2365,7 @@
       <c r="J28" s="15"/>
       <c r="K28" s="65"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B29" s="24" t="s">
         <v>105</v>
       </c>
@@ -2293,7 +2388,7 @@
         <v>29295.260944168494</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B30" s="24" t="s">
         <v>107</v>
       </c>
@@ -2312,7 +2407,7 @@
         <v>144972.70422708918</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B31" s="24" t="s">
         <v>108</v>
       </c>
@@ -2327,13 +2422,13 @@
         <v>512791.80994305317</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B32" s="24"/>
       <c r="C32" s="21"/>
       <c r="D32" s="22"/>
       <c r="E32" s="24"/>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="20" t="s">
         <v>109</v>
       </c>
@@ -2346,7 +2441,7 @@
         <v>3589542.6696013715</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="17.25" customHeight="1" thickBot="1">
+    <row r="34" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="28" t="s">
         <v>111</v>
       </c>
@@ -2364,4 +2459,89 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4574536-456A-407A-ABF5-B0D408D8AA8A}">
+  <dimension ref="A2:Q3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="17" max="17" width="16.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q2" s="77" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="79"/>
+      <c r="Q3" s="80">
+        <f>SUM(B3*1.4*8760,(C3+D3)*8760,(E3+F3+G3+H3+I3)*0.648*8760,(J3+K3+L3+M3)*1.3464*8760)+N3*44175.392*0.000277778*0.08*8760*0.5</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TEA/TEA_plastic_pyro_v2.xlsx
+++ b/TEA/TEA_plastic_pyro_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PSID_PC22\Documents\GitHub\TeamEnv\TEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58ECFDC-AD2A-4816-A21C-A68610E4F348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E3ABF7-DF14-438D-8244-39281300B377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20172" yWindow="0" windowWidth="20172" windowHeight="17280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="56655" yWindow="5490" windowWidth="20910" windowHeight="11775" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plastic" sheetId="1" r:id="rId1"/>
@@ -373,65 +373,50 @@
     <t>EAC (r=7%, t=25 year)    RP=r, NP=t</t>
   </si>
   <si>
+    <t>kg/h</t>
+  </si>
+  <si>
     <t>CH4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C2H6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C2H4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C4H10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C6H6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C7H8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C8H10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C9H18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C10H8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C10H14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C14H30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C16H34</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C22H46</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Revenue
 [$/Y]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>kg/h</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -442,7 +427,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1290,7 +1275,7 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="29" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="40" bestFit="1" customWidth="1"/>
@@ -1303,13 +1288,13 @@
     <col min="10" max="10" width="60.8984375" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="17.25" customHeight="1" thickBot="1"/>
+    <row r="4" spans="2:10" ht="17.25" customHeight="1" thickBot="1">
       <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
@@ -1338,7 +1323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10">
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
@@ -1368,7 +1353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10">
       <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
@@ -1398,7 +1383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10">
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
@@ -1428,7 +1413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10">
       <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
@@ -1458,7 +1443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10">
       <c r="B9" s="11" t="s">
         <v>16</v>
       </c>
@@ -1480,7 +1465,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10">
       <c r="B10" s="71" t="s">
         <v>18</v>
       </c>
@@ -1510,7 +1495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10">
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
@@ -1540,7 +1525,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10">
       <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
@@ -1570,7 +1555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10">
       <c r="B13" s="71" t="s">
         <v>24</v>
       </c>
@@ -1584,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="44">
-        <v>3.25671395</v>
+        <v>3.2567141199999998</v>
       </c>
       <c r="G13">
         <v>0.59</v>
@@ -1594,13 +1579,13 @@
       </c>
       <c r="I13" s="5">
         <f>C13*(F13/E13)^G13*595.6/499.6</f>
-        <v>2384.2719719835331</v>
+        <v>2384.2720454141381</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" ht="17.25" customHeight="1" thickBot="1">
       <c r="B14" s="12" t="s">
         <v>25</v>
       </c>
@@ -1628,7 +1613,7 @@
       </c>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" ht="17.25" customHeight="1" thickBot="1">
       <c r="B15" s="8" t="s">
         <v>26</v>
       </c>
@@ -1640,16 +1625,16 @@
       <c r="H15" s="41"/>
       <c r="I15" s="49">
         <f>SUM(I5:I14)</f>
-        <v>769187.71491457964</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+        <v>769187.71498801035</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="22" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" ht="17.25" customHeight="1" thickBot="1"/>
+    <row r="22" spans="2:5" ht="17.25" customHeight="1" thickBot="1">
       <c r="B22" s="8" t="s">
         <v>1</v>
       </c>
@@ -1660,7 +1645,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5">
       <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
@@ -1672,7 +1657,7 @@
         <v>5013.6772005899993</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5">
       <c r="B24" s="4" t="s">
         <v>13</v>
       </c>
@@ -1684,7 +1669,7 @@
         <v>9825.765577496999</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5">
       <c r="B25" s="4" t="s">
         <v>14</v>
       </c>
@@ -1696,7 +1681,7 @@
         <v>3974.3519576580006</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5">
       <c r="B26" s="4" t="s">
         <v>15</v>
       </c>
@@ -1708,7 +1693,7 @@
         <v>1498.7883504771</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5">
       <c r="B27" s="4" t="s">
         <v>16</v>
       </c>
@@ -1717,7 +1702,7 @@
       </c>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:5">
       <c r="B28" s="4" t="s">
         <v>18</v>
       </c>
@@ -1732,7 +1717,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:5">
       <c r="B29" s="4" t="s">
         <v>21</v>
       </c>
@@ -1747,7 +1732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:5">
       <c r="B30" s="4" t="s">
         <v>23</v>
       </c>
@@ -1759,7 +1744,7 @@
         <v>1644.6209021587799</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:5">
       <c r="B31" s="4" t="s">
         <v>24</v>
       </c>
@@ -1771,7 +1756,7 @@
         <v>1038.6888150743998</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:5" ht="17.25" customHeight="1" thickBot="1">
       <c r="B32" s="6" t="s">
         <v>25</v>
       </c>
@@ -1782,7 +1767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="B33" s="8" t="s">
         <v>26</v>
       </c>
@@ -1792,8 +1777,8 @@
         <v>44218.397232285482</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="17.25" customHeight="1" thickBot="1"/>
+    <row r="38" spans="1:7">
       <c r="B38" s="10" t="s">
         <v>32</v>
       </c>
@@ -1806,10 +1791,10 @@
       </c>
       <c r="G38" s="76">
         <f>'Plastic EAC&amp;TPC'!E34</f>
-        <v>356561.62218411564</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+        <v>356561.62221815495</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="B39" s="54" t="s">
         <v>34</v>
       </c>
@@ -1821,10 +1806,10 @@
       </c>
       <c r="G39">
         <f>'Plastic EAC&amp;TPC'!K25</f>
-        <v>144972.70422708918</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+        <v>144972.70423238815</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="13" t="s">
         <v>17</v>
       </c>
@@ -1835,7 +1820,7 @@
         <v>-8.8900000000000003E-10</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A41" s="13" t="s">
         <v>37</v>
       </c>
@@ -1857,11 +1842,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="55.8984375" style="40" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.8984375" style="40" bestFit="1" customWidth="1"/>
@@ -1871,7 +1856,7 @@
     <col min="11" max="11" width="14.19921875" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:11" ht="17.25" customHeight="1" thickBot="1">
       <c r="B3" s="14" t="s">
         <v>39</v>
       </c>
@@ -1884,7 +1869,7 @@
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:11" ht="17.25" customHeight="1" thickBot="1">
       <c r="B4" s="16" t="s">
         <v>41</v>
       </c>
@@ -1907,7 +1892,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:11">
       <c r="B5" s="20" t="s">
         <v>47</v>
       </c>
@@ -1920,7 +1905,7 @@
       <c r="J5" s="34"/>
       <c r="K5" s="59"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:11">
       <c r="B6" s="20" t="s">
         <v>49</v>
       </c>
@@ -1935,10 +1920,10 @@
       </c>
       <c r="K6" s="60">
         <f>SUM(E29*0.01)</f>
-        <v>25639.590497152658</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+        <v>25639.590499600345</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="24" t="s">
         <v>52</v>
       </c>
@@ -1950,7 +1935,7 @@
       </c>
       <c r="E7" s="50">
         <f>Plastic!I15</f>
-        <v>769187.71491457964</v>
+        <v>769187.71498801035</v>
       </c>
       <c r="I7" s="26" t="s">
         <v>54</v>
@@ -1958,7 +1943,7 @@
       <c r="J7" s="36"/>
       <c r="K7" s="60"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:11">
       <c r="B8" s="24" t="s">
         <v>55</v>
       </c>
@@ -1970,7 +1955,7 @@
       </c>
       <c r="E8" s="24">
         <f>SUM(E29*0.1)</f>
-        <v>256395.90497152659</v>
+        <v>256395.90499600346</v>
       </c>
       <c r="I8" s="37" t="s">
         <v>57</v>
@@ -1982,7 +1967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:11">
       <c r="B9" s="24" t="s">
         <v>58</v>
       </c>
@@ -1994,7 +1979,7 @@
       </c>
       <c r="E9" s="24">
         <f>SUM(E29*0.05)</f>
-        <v>128197.95248576329</v>
+        <v>128197.95249800173</v>
       </c>
       <c r="I9" s="36" t="s">
         <v>60</v>
@@ -2007,7 +1992,7 @@
         <v>44218.397232285482</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:11">
       <c r="B10" s="24" t="s">
         <v>61</v>
       </c>
@@ -2019,7 +2004,7 @@
       </c>
       <c r="E10" s="24">
         <f>SUM(E29*0.1)</f>
-        <v>256395.90497152659</v>
+        <v>256395.90499600346</v>
       </c>
       <c r="I10" s="36" t="s">
         <v>63</v>
@@ -2029,7 +2014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11">
       <c r="B11" s="24" t="s">
         <v>64</v>
       </c>
@@ -2041,7 +2026,7 @@
       </c>
       <c r="E11" s="24">
         <f>SUM(E29*0.05)</f>
-        <v>128197.95248576329</v>
+        <v>128197.95249800173</v>
       </c>
       <c r="I11" s="36" t="s">
         <v>66</v>
@@ -2053,7 +2038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11">
       <c r="B12" s="24"/>
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
@@ -2066,10 +2051,10 @@
       </c>
       <c r="K12" s="63">
         <f>SUM(K6*0.04)</f>
-        <v>1025.5836198861064</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+        <v>1025.5836199840137</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" s="20" t="s">
         <v>69</v>
       </c>
@@ -2084,10 +2069,10 @@
       </c>
       <c r="K13" s="60">
         <f>SUM(K25*0.15)</f>
-        <v>21745.905634063376</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+        <v>21745.90563485822</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" s="24" t="s">
         <v>72</v>
       </c>
@@ -2099,7 +2084,7 @@
       </c>
       <c r="E14" s="24">
         <f>SUM(E29*0.08)</f>
-        <v>205116.72397722126</v>
+        <v>205116.72399680276</v>
       </c>
       <c r="I14" s="21" t="s">
         <v>74</v>
@@ -2109,10 +2094,10 @@
       </c>
       <c r="K14" s="60">
         <f>SUM(K13*0.3)</f>
-        <v>6523.7716902190123</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+        <v>6523.7716904574654</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" s="24" t="s">
         <v>76</v>
       </c>
@@ -2124,7 +2109,7 @@
       </c>
       <c r="E15" s="24">
         <f>SUM(E29*0.02)</f>
-        <v>51279.180994305316</v>
+        <v>51279.180999200689</v>
       </c>
       <c r="I15" s="21" t="s">
         <v>78</v>
@@ -2134,10 +2119,10 @@
       </c>
       <c r="K15" s="60">
         <f>SUM(K12*0.15)</f>
-        <v>153.83754298291595</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+        <v>153.83754299760204</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
       <c r="B16" s="24" t="s">
         <v>80</v>
       </c>
@@ -2149,7 +2134,7 @@
       </c>
       <c r="E16" s="24">
         <f>SUM(E29*0.08)</f>
-        <v>205116.72397722126</v>
+        <v>205116.72399680276</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>82</v>
@@ -2159,10 +2144,10 @@
       </c>
       <c r="K16" s="60">
         <f>SUM(K13*0.15)</f>
-        <v>3261.8858451095061</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+        <v>3261.8858452287327</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" s="24" t="s">
         <v>84</v>
       </c>
@@ -2174,13 +2159,13 @@
       </c>
       <c r="E17" s="24">
         <f>SUM(E29*0.02)</f>
-        <v>51279.180994305316</v>
+        <v>51279.180999200689</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="36"/>
       <c r="K17" s="60"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:11">
       <c r="B18" s="24"/>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
@@ -2193,10 +2178,10 @@
       </c>
       <c r="K18" s="60">
         <f>SUM(0.6*K29)</f>
-        <v>17577.156566501097</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+        <v>17577.15656717982</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
       <c r="B19" s="20" t="s">
         <v>88</v>
       </c>
@@ -2204,13 +2189,13 @@
       <c r="D19" s="22"/>
       <c r="E19" s="24">
         <f>SUM(E7:E17)</f>
-        <v>2051167.2397722125</v>
+        <v>2051167.2399680277</v>
       </c>
       <c r="I19" s="21"/>
       <c r="J19" s="36"/>
       <c r="K19" s="60"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:11">
       <c r="B20" s="24"/>
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
@@ -2221,7 +2206,7 @@
       <c r="J20" s="36"/>
       <c r="K20" s="60"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:11">
       <c r="B21" s="20" t="s">
         <v>90</v>
       </c>
@@ -2236,10 +2221,10 @@
       </c>
       <c r="K21" s="60">
         <f>SUM(K13*0.175)</f>
-        <v>3805.5334859610907</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+        <v>3805.5334861001884</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
       <c r="B22" s="24" t="s">
         <v>93</v>
       </c>
@@ -2251,7 +2236,7 @@
       </c>
       <c r="E22" s="24">
         <f>SUM(E29*0.05)</f>
-        <v>128197.95248576329</v>
+        <v>128197.95249800173</v>
       </c>
       <c r="I22" s="39" t="s">
         <v>95</v>
@@ -2261,10 +2246,10 @@
       </c>
       <c r="K22" s="60">
         <f>SUM(K25*0.11)</f>
-        <v>15946.99746497981</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+        <v>15946.997465562696</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
       <c r="B23" s="24" t="s">
         <v>97</v>
       </c>
@@ -2276,7 +2261,7 @@
       </c>
       <c r="E23" s="24">
         <f>SUM(E29*0.05)</f>
-        <v>128197.95248576329</v>
+        <v>128197.95249800173</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>99</v>
@@ -2286,10 +2271,10 @@
       </c>
       <c r="K23" s="60">
         <f>SUM(K25*0.035)</f>
-        <v>5074.0446479481216</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+        <v>5074.0446481335857</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
       <c r="B24" s="24" t="s">
         <v>101</v>
       </c>
@@ -2301,13 +2286,13 @@
       </c>
       <c r="E24" s="24">
         <f>SUM(E29*0.05)</f>
-        <v>128197.95248576329</v>
+        <v>128197.95249800173</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
       <c r="K24" s="60"/>
     </row>
-    <row r="25" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:11" ht="17.25" customHeight="1" thickBot="1">
       <c r="B25" s="24" t="s">
         <v>102</v>
       </c>
@@ -2319,7 +2304,7 @@
       </c>
       <c r="E25" s="24">
         <f>SUM(E29*0.05)</f>
-        <v>128197.95248576329</v>
+        <v>128197.95249800173</v>
       </c>
       <c r="I25" s="29" t="s">
         <v>35</v>
@@ -2327,10 +2312,10 @@
       <c r="J25" s="29"/>
       <c r="K25" s="64">
         <f>SUM(K27/0.49425)</f>
-        <v>144972.70422708918</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
+        <v>144972.70423238815</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
       <c r="B26" s="24"/>
       <c r="C26" s="21"/>
       <c r="D26" s="22"/>
@@ -2339,7 +2324,7 @@
       <c r="J26" s="22"/>
       <c r="K26" s="65"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:11">
       <c r="B27" s="20" t="s">
         <v>104</v>
       </c>
@@ -2347,16 +2332,16 @@
       <c r="D27" s="22"/>
       <c r="E27" s="24">
         <f>SUM(E22:E25)</f>
-        <v>512791.80994305317</v>
+        <v>512791.80999200692</v>
       </c>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="65">
         <f>SUM(K6:K12,K15,0.6*K12)</f>
-        <v>71652.759064238839</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
+        <v>71652.759066857849</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
       <c r="B28" s="24"/>
       <c r="C28" s="21"/>
       <c r="D28" s="22"/>
@@ -2365,7 +2350,7 @@
       <c r="J28" s="15"/>
       <c r="K28" s="65"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:11">
       <c r="B29" s="24" t="s">
         <v>105</v>
       </c>
@@ -2377,7 +2362,7 @@
       </c>
       <c r="E29" s="24">
         <f>SUM(E7*100/D7)</f>
-        <v>2563959.0497152656</v>
+        <v>2563959.0499600344</v>
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="15" t="s">
@@ -2385,10 +2370,10 @@
       </c>
       <c r="K29" s="65">
         <f>(K12+K13+K14)</f>
-        <v>29295.260944168494</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
+        <v>29295.260945299699</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
       <c r="B30" s="24" t="s">
         <v>107</v>
       </c>
@@ -2400,14 +2385,14 @@
       </c>
       <c r="E30" s="24">
         <f>SUM(E29*0.2)</f>
-        <v>512791.80994305317</v>
+        <v>512791.80999200692</v>
       </c>
       <c r="K30" s="66">
         <f>SUM(K6:K23)</f>
-        <v>144972.70422708918</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
+        <v>144972.70423238818</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
       <c r="B31" s="24" t="s">
         <v>108</v>
       </c>
@@ -2419,16 +2404,16 @@
       </c>
       <c r="E31" s="24">
         <f>SUM(E29*0.2)</f>
-        <v>512791.80994305317</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
+        <v>512791.80999200692</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
       <c r="B32" s="24"/>
       <c r="C32" s="21"/>
       <c r="D32" s="22"/>
       <c r="E32" s="24"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:5">
       <c r="B33" s="20" t="s">
         <v>109</v>
       </c>
@@ -2438,10 +2423,10 @@
       <c r="D33" s="27"/>
       <c r="E33" s="20">
         <f>SUM(E29:E31)</f>
-        <v>3589542.6696013715</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>3589542.6699440484</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="17.25" customHeight="1" thickBot="1">
       <c r="B34" s="28" t="s">
         <v>111</v>
       </c>
@@ -2451,7 +2436,7 @@
       <c r="D34" s="30"/>
       <c r="E34" s="72">
         <f>SUM(E33/((1-(1/((1.05)^25)))/0.07))</f>
-        <v>356561.62218411564</v>
+        <v>356561.62221815495</v>
       </c>
     </row>
   </sheetData>
@@ -2462,86 +2447,140 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4574536-456A-407A-ABF5-B0D408D8AA8A}">
-  <dimension ref="A2:Q3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B3:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="17" max="17" width="16.3984375" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" style="40" customWidth="1"/>
+    <col min="17" max="17" width="16.3984375" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+    <row r="3" spans="2:3">
+      <c r="C3" t="s">
         <v>112</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
         <v>113</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" s="78">
+        <v>2.9460085E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
         <v>114</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C5" s="79">
+        <v>3.9851310000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
         <v>115</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C6" s="78">
+        <v>0.113000383</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
         <v>116</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C7" s="79">
+        <v>0.86208488999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
         <v>117</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C8" s="79">
+        <v>82.669290500000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
         <v>118</v>
       </c>
-      <c r="I2" t="s">
+      <c r="C9" s="79">
+        <v>92.918295499999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
         <v>119</v>
       </c>
-      <c r="J2" t="s">
+      <c r="C10" s="79">
+        <v>21.1840905</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
         <v>120</v>
       </c>
-      <c r="K2" t="s">
+      <c r="C11" s="78">
+        <v>4.7050344700000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
         <v>121</v>
       </c>
-      <c r="L2" t="s">
+      <c r="C12" s="79">
+        <v>5.1683137300000004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
         <v>122</v>
       </c>
-      <c r="M2" t="s">
+      <c r="C13" s="79">
+        <v>5.8133866000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
         <v>123</v>
       </c>
-      <c r="N2" t="s">
+      <c r="C14" s="79">
+        <v>2.8412293800000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
         <v>124</v>
       </c>
-      <c r="Q2" s="77" t="s">
+      <c r="C15" s="78">
+        <v>0.45433108799999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="C16" s="79">
+        <v>11.499445700000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="34.799999999999997" customHeight="1">
+      <c r="B19" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="79"/>
-      <c r="Q3" s="80">
-        <f>SUM(B3*1.4*8760,(C3+D3)*8760,(E3+F3+G3+H3+I3)*0.648*8760,(J3+K3+L3+M3)*1.3464*8760)+N3*44175.392*0.000277778*0.08*8760*0.5</f>
-        <v>0</v>
+      <c r="C19" s="80">
+        <f>SUM(C4*1.4*8760,(C5+C6)*8760,(C7+C8+C9+C10+C11)*0.648*8760,(C12+C13+C14+C15)*1.3464*8760)+C16*44175.392*0.000277778*0.08*8760*0.5</f>
+        <v>1368109.6907266071</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>